--- a/data/trans_camb/P43_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P43_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,98</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,19</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-8,07</t>
+          <t>7,1</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-13,91</t>
+          <t>8,16</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,38</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-1,19</t>
+          <t>-2,01</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-6,41</t>
+          <t>3,66</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,19</t>
+          <t>-3,03</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-2,26</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-0,9</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>2,51</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>2,16</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>3,26</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,64; 17,78</t>
+          <t>-2,64; 5,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,89; 10,91</t>
+          <t>-4,14; 4,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-15,65; 11,34</t>
+          <t>-3,31; 6,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-27,69; 9,07</t>
+          <t>0,82; 15,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-34,11; 2,04</t>
+          <t>2,4; 15,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-15,79; 29,45</t>
+          <t>-5,68; 2,6</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-12,41; 9,89</t>
+          <t>-6,33; 1,77</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-18,55; 3,18</t>
+          <t>-1,76; 11,2</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-10,39; 14,22</t>
+          <t>-11,33; 2,78</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-8,8; 3,44</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-2,75; 3,57</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-3,79; 1,94</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-1,29; 7,0</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-3,05; 6,91</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-1,33; 7,75</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>41,79%</t>
+          <t>59,64%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-8,17%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-12,49%</t>
+          <t>47,88%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-34,94%</t>
+          <t>189,78%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-60,26%</t>
+          <t>304,49%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>36,28%</t>
+          <t>-24,38%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-7,74%</t>
+          <t>-43,09%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-41,69%</t>
+          <t>78,41%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>14,28%</t>
+          <t>-36,29%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-29,81%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>6,04%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-25,18%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>70,36%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>35,47%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>65,57%</t>
         </is>
       </c>
     </row>
@@ -791,7 +929,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-78,38; 513,24</t>
+          <t>-70,87; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,37 +939,67 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-79,58; 111,77</t>
+          <t>-8,51; 1321,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-90,1; 31,11</t>
+          <t>6,63; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-50,36; 256,44</t>
+          <t>-78,41; 136,88</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-57,51; 101,23</t>
+          <t>-89,47; 88,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-79,2; 46,51</t>
+          <t>-39,53; 436,29</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-49,55; 164,77</t>
+          <t>-82,84; 69,33</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-77,81; 108,2</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-55,22; 197,06</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-70,11; 103,32</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-33,57; 295,26</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-37,61; 192,49</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-23,69; 269,52</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,03</t>
+          <t>3,36</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,42</t>
+          <t>5,24</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,76</t>
+          <t>7,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>-4,34</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>-0,23</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1,03</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
           <t>0,58</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-0,23</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-3,24</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>1,98</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>0,35</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>3,81</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>2,25</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>3,05</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>4,77</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-2,11</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1,75</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 10,6</t>
+          <t>-1,9; 9,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 16,32</t>
+          <t>-0,9; 13,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 14,43</t>
+          <t>-0,48; 21,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 9,29</t>
+          <t>-19,46; 4,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,04; 7,44</t>
+          <t>-7,67; 8,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,31; 6,66</t>
+          <t>-4,61; 6,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 7,38</t>
+          <t>-5,21; 6,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 10,32</t>
+          <t>-4,4; 8,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 7,67</t>
+          <t>-6,78; 7,1</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-2,85; 9,81</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-2,1; 6,02</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-1,08; 8,63</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>0,03; 14,41</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-10,46; 3,72</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-3,52; 6,67</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>32,43%</t>
+          <t>53,16%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>47,26%</t>
+          <t>82,75%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>40,18%</t>
+          <t>110,65%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>-32,53%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-1,61%</t>
+          <t>-2,46%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-23,13%</t>
+          <t>12,58%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>17,41%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>21,33%</t>
+          <t>27,43%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,93%</t>
+          <t>3,35%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>54,68%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>31,17%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>42,26%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>66,15%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-17,58%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>21,49%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-37,67; 189,78</t>
+          <t>-26,5; 243,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-31,03; 278,12</t>
+          <t>-15,73; 371,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-41,21; 272,03</t>
+          <t>-11,98; 585,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-42,26; 108,97</t>
+          <t>-83,62; 64,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-50,43; 81,44</t>
+          <t>-63,42; 161,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-65,55; 84,4</t>
+          <t>-43,96; 110,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-27,47; 92,19</t>
+          <t>-47,96; 111,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-28,57; 118,87</t>
+          <t>-46,32; 163,89</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-37,0; 90,82</t>
+          <t>-47,24; 108,56</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-30,68; 228,7</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-23,39; 110,86</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-13,65; 173,47</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-3,45; 251,2</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-57,46; 44,7</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-35,99; 117,04</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,78</t>
+          <t>3,19</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-4,34</t>
+          <t>-3,69</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-4,71</t>
+          <t>-2,88</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,71</t>
+          <t>-2,4</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-2,13</t>
+          <t>-2,24</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-2,08</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>2,46</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>2,66</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-1,22</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-0,73</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1,16</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-0,72</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-0,25</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 5,93</t>
+          <t>-5,14; 5,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 5,89</t>
+          <t>-4,44; 5,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 10,18</t>
+          <t>-2,42; 8,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-11,24; 2,93</t>
+          <t>-9,54; 2,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,52; 1,53</t>
+          <t>-9,17; 3,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,92; 7,29</t>
+          <t>-7,32; 1,7</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,84; 2,35</t>
+          <t>-7,1; 1,88</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 2,04</t>
+          <t>-5,09; 4,48</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 5,73</t>
+          <t>-3,1; 7,71</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-2,98; 8,54</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-4,78; 1,94</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-4,23; 2,97</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-2,64; 5,09</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-4,89; 3,6</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-4,23; 4,35</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-0,89%</t>
+          <t>0,16%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>10,41%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>27,48%</t>
+          <t>38,87%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-25,72%</t>
+          <t>-32,41%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-27,91%</t>
+          <t>-27,2%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-10,16%</t>
+          <t>-22,19%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-16,05%</t>
+          <t>-20,76%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-15,67%</t>
+          <t>-7,15%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>24,56%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>27,06%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-12,81%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-7,7%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>12,16%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-6,69%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-2,4%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1601,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-47,94; 81,95</t>
+          <t>-47,84; 89,7</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-45,0; 84,75</t>
+          <t>-41,04; 98,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-32,75; 145,41</t>
+          <t>-24,14; 148,01</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-54,44; 23,88</t>
+          <t>-64,84; 42,21</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-54,62; 13,09</t>
+          <t>-65,48; 52,71</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-44,48; 64,41</t>
+          <t>-54,13; 20,98</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-43,33; 23,31</t>
+          <t>-50,7; 25,81</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-41,51; 20,48</t>
+          <t>-39,57; 55,87</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-30,77; 50,7</t>
+          <t>-25,8; 97,8</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-27,02; 118,49</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-41,43; 26,1</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-36,78; 38,18</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-23,91; 64,1</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-38,81; 42,9</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-34,79; 56,92</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-4,23</t>
+          <t>-2,22</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-8,4</t>
+          <t>-5,91</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,12</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,92</t>
+          <t>-1,73</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,37</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>3,44</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-2,89</t>
+          <t>4,77</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>-5,27</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-1,41</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0,17</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-1,17</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>2,47</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-3,47</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-0,38</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-12,97; 2,59</t>
+          <t>-9,66; 3,96</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-16,67; -1,7</t>
+          <t>-12,99; 0,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-10,95; 6,47</t>
+          <t>-7,68; 9,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 10,42</t>
+          <t>-10,73; 5,22</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 11,93</t>
+          <t>-6,25; 7,37</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,22; 10,25</t>
+          <t>-3,24; 7,23</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 4,51</t>
+          <t>-2,49; 8,02</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-8,52; 2,99</t>
+          <t>-0,77; 10,13</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 5,49</t>
+          <t>-10,86; 0,76</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-7,83; 4,2</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-4,54; 4,02</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-5,51; 2,55</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-2,78; 7,24</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-8,81; 0,5</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-4,91; 4,09</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-23,08%</t>
+          <t>-15,43%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-45,83%</t>
+          <t>-41,05%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-11,57%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>14,65%</t>
+          <t>-11,94%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>21,9%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>21,47%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-6,04%</t>
+          <t>29,97%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-15,16%</t>
+          <t>41,54%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-3,98%</t>
+          <t>-32,44%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-11,36%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1,31%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-9,05%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>19,11%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-22,56%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-3,13%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1937,77 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-52,56; 21,2</t>
+          <t>-47,66; 39,84</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-67,67; -8,19</t>
+          <t>-65,78; 5,05</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-48,39; 49,49</t>
+          <t>-46,25; 85,72</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-25,69; 67,67</t>
+          <t>-53,69; 50,42</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-21,14; 77,93</t>
+          <t>-40,06; 86,71</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-33,08; 65,69</t>
+          <t>-22,26; 78,47</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-31,5; 28,33</t>
+          <t>-17,54; 86,9</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-38,16; 19,13</t>
+          <t>-5,79; 116,53</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-34,77; 35,24</t>
+          <t>-56,62; 7,04</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-48,6; 45,05</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-28,84; 37,68</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-35,2; 24,91</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-18,16; 66,13</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-47,45; 6,25</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-35,09; 41,45</t>
         </is>
       </c>
     </row>
@@ -1496,47 +2024,77 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-2,61</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-1,78</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>3,02</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-4,12</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-1,22</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-10,04</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-2,82</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-1,04</t>
+          <t>4,67</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-2,53</t>
+          <t>-5,2</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-0,66</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>0,35</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>3,39</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>-2,9</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>-0,7</t>
         </is>
       </c>
     </row>
@@ -1549,47 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-14,31; 8,07</t>
+          <t>-5,72; 5,04</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-12,74; 9,14</t>
+          <t>-5,73; 4,82</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-9,48; 15,77</t>
+          <t>-3,61; 8,32</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-20,35; 10,44</t>
+          <t>-6,71; 5,85</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-17,17; 13,29</t>
+          <t>-7,14; 5,81</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-25,47; 3,59</t>
+          <t>-4,03; 6,37</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-12,69; 5,55</t>
+          <t>-4,01; 6,71</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-10,54; 8,32</t>
+          <t>-2,15; 11,11</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-11,94; 7,07</t>
+          <t>-11,24; 0,86</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-5,97; 4,84</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-3,6; 3,89</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-3,48; 3,75</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-0,66; 7,66</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-6,83; 1,83</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-4,75; 4,09</t>
         </is>
       </c>
     </row>
@@ -1602,47 +2190,77 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-11,94%</t>
+          <t>-6,42%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-8,11%</t>
+          <t>-8,23%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>13,8%</t>
+          <t>21,18%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-13,3%</t>
+          <t>-4,1%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-3,93%</t>
+          <t>-6,53%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-32,42%</t>
+          <t>13,96%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-11,06%</t>
+          <t>16,64%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-4,08%</t>
+          <t>53,41%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-9,92%</t>
+          <t>-38,72%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-7,43%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>3,3%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>3,75%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>36,67%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>-22,96%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>-6,68%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +2273,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-48,61; 50,45</t>
+          <t>-45,64; 73,18</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-46,13; 57,52</t>
+          <t>-46,37; 80,01</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-35,49; 93,6</t>
+          <t>-27,91; 115,94</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-50,44; 46,86</t>
+          <t>-46,14; 61,23</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-41,82; 61,81</t>
+          <t>-45,54; 73,1</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-62,79; 15,85</t>
+          <t>-35,29; 111,07</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-39,73; 29,57</t>
+          <t>-36,18; 103,51</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-34,23; 40,39</t>
+          <t>-21,96; 173,12</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-41,01; 34,13</t>
+          <t>-65,96; 15,46</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-53,16; 81,53</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-31,74; 52,63</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-29,76; 55,23</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-6,01; 105,01</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-46,75; 18,56</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-38,5; 51,99</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2360,77 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-19,93</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-19,93</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>19,8</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>42,78</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>49,48</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>38,61</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>13,9</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>14,36</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>24,06</t>
+          <t>1,19</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>0,67</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>0,64</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>0,98</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>0,43</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>-0,03</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2443,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-70,39; 0,0</t>
+          <t>-2,87; 0,0</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-70,39; 0,0</t>
+          <t>-2,67; 0,0</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-39,33; 73,11</t>
+          <t>-0,54; 6,5</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>9,42; 79,76</t>
+          <t>-4,24; 2,41</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>13,17; 86,41</t>
+          <t>-3,59; 2,83</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>12,5; 76,82</t>
+          <t>0,42; 3,86</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-28,4; 42,99</t>
+          <t>0,13; 3,96</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-29,59; 49,45</t>
+          <t>0,0; 3,43</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-25,1; 54,93</t>
+          <t>-0,83; 4,63</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-2,72; 3,32</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-0,21; 2,05</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-0,19; 2,28</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,3</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-1,52; 2,54</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-2,1; 2,14</t>
         </is>
       </c>
     </row>
@@ -1828,37 +2536,67 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>99,37%</t>
+          <t>258,26%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
+          <t>-27,68%</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>-12,62%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="G26" s="2" t="inlineStr">
+      <c r="I26" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="H26" s="2" t="inlineStr">
+      <c r="J26" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>92,61%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>95,68%</t>
-        </is>
-      </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>160,32%</t>
+          <t>189,7%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>5,47%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>285,24%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>272,09%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>419,06%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>35,42%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>-1,77%</t>
         </is>
       </c>
     </row>
@@ -1914,6 +2652,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-83,67; —</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-81,09; 379,41</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1928,47 +2696,77 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-1,74</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-0,98</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-1,35</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-1,52</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>-1,46</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>0,42</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>0,37</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>0,18</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>2,48</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>-1,18</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>0,46</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 3,2</t>
+          <t>-1,99; 2,33</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 2,2</t>
+          <t>-2,22; 2,37</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 6,17</t>
+          <t>-0,04; 5,85</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 3,13</t>
+          <t>-4,35; 1,9</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 2,83</t>
+          <t>-2,03; 3,23</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 3,97</t>
+          <t>-1,18; 2,31</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 1,95</t>
+          <t>-1,29; 2,34</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 1,3</t>
+          <t>0,41; 4,76</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 3,83</t>
+          <t>-3,73; 0,81</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-1,79; 2,87</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-1,07; 1,73</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-1,23; 1,62</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>0,8; 4,27</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>-3,17; 0,73</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-1,22; 2,28</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-5,57%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-12,65%</t>
+          <t>-2,35%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>11,53%</t>
+          <t>36,16%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-5,15%</t>
+          <t>-9,18%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-7,09%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-4,26%</t>
+          <t>6,81%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-5,2%</t>
+          <t>7,07%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-9,49%</t>
+          <t>32,56%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>-15,18%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>5,39%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>5,16%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>2,49%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>34,32%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>-12,17%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>5,73%</t>
         </is>
       </c>
     </row>
@@ -2087,63 +2945,100 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-25,93; 27,31</t>
+          <t>-23,71; 39,34</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-33,87; 19,32</t>
+          <t>-26,79; 40,53</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-18,39; 51,59</t>
+          <t>-1,12; 91,38</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-25,07; 20,14</t>
+          <t>-36,99; 23,65</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-26,83; 18,0</t>
+          <t>-21,16; 44,28</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-26,89; 24,2</t>
+          <t>-14,52; 37,51</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-20,9; 14,12</t>
+          <t>-15,45; 36,22</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-25,82; 9,4</t>
+          <t>4,09; 75,24</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-15,06; 26,08</t>
+          <t>-34,27; 10,28</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-19,97; 43,09</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-13,49; 26,18</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-15,11; 24,66</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>9,7; 63,62</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>-29,25; 8,36</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-13,76; 31,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
